--- a/biology/Botanique/Jardin_tropical/Jardin_tropical.xlsx
+++ b/biology/Botanique/Jardin_tropical/Jardin_tropical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jardin tropical est un jardin composé avec des plantes provenant des tropiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jardin tropical exige une bonne irrigation ou un système d'arrosage. Il a aussi besoin d'engrais et de paillis en abondance.
 C'est un des jardins les plus complexes à aménager ou à entretenir si le climat local diffère de l'habitat naturel des plantes. La clef du succès est l'abondance en lumière et en eau. En effet, pour que puissent proliférer les plantes, il est nécessaire que le sol soit constamment humide, tout en évitant l'inondation qui pourrait les tuer.
@@ -544,7 +558,9 @@
           <t>Quelques plantes tropicales pouvant vivre sous un climat non tropical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acanthus mollis
 Algerian ivy
@@ -581,7 +597,9 @@
           <t>Jardins tropicaux célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jardin tropical de Paris</t>
         </is>
